--- a/data/trans_orig/IQ21C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ21C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97416D43-F1E3-4AAB-A7A4-416C1A8626BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC17C99-675C-4AA3-AAF0-88E5ADE45E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8836B11-6F80-4C1D-ABB7-E8DBD3D60D40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{489746AE-D9CF-4380-95CF-0F0520BE897D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="239">
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2007 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>16,8%</t>
   </si>
   <si>
-    <t>67,37%</t>
+    <t>67,04%</t>
   </si>
   <si>
     <t>26,76%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>93,49%</t>
   </si>
   <si>
     <t>55,27%</t>
@@ -128,7 +128,7 @@
     <t>35,94%</t>
   </si>
   <si>
-    <t>85,43%</t>
+    <t>85,25%</t>
   </si>
   <si>
     <t>22,65%</t>
@@ -137,7 +137,7 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>65,25%</t>
+    <t>64,12%</t>
   </si>
   <si>
     <t>25,8%</t>
@@ -149,7 +149,7 @@
     <t>17,5%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>72,15%</t>
   </si>
   <si>
     <t>44,73%</t>
@@ -158,7 +158,7 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>62,42%</t>
+    <t>63,02%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -185,19 +185,19 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>66,6%</t>
+    <t>70,28%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>42,94%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>83,54%</t>
+    <t>83,6%</t>
   </si>
   <si>
     <t>28,85%</t>
@@ -209,34 +209,34 @@
     <t>31,73%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>67,81%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>52,79%</t>
+    <t>48,6%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>64,01%</t>
+    <t>63,4%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>39,26%</t>
+    <t>40,52%</t>
   </si>
   <si>
     <t>47,8%</t>
@@ -245,28 +245,31 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>56,33%</t>
+    <t>56,75%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>69,49%</t>
+    <t>68,17%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>45,42%</t>
+    <t>51,88%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
+    <t>79,56%</t>
+  </si>
+  <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>38,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -284,13 +287,13 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>56,87%</t>
+    <t>57,13%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>39,55%</t>
+    <t>46,11%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -299,423 +302,426 @@
     <t>14,52%</t>
   </si>
   <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2016 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
     <t>43,83%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2015 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
     <t>56,17%</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>74,0%</t>
+    <t>73,96%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -737,7 +743,7 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>46,26%</t>
@@ -749,7 +755,7 @@
     <t>40,71%</t>
   </si>
   <si>
-    <t>84,26%</t>
+    <t>84,32%</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849104E-1388-4475-A683-6DDE83FE2C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0779BF-784D-49D9-AF1E-6986B74FE55D}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4372,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4381,13 +4387,13 @@
         <v>576</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4500,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DF199F-404C-45E4-BCD0-CC9FD0E2B37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC3752D-7396-46C6-B21A-B96178799049}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4531,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,7 +5098,7 @@
         <v>645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
@@ -5107,7 +5113,7 @@
         <v>645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
@@ -5190,7 +5196,7 @@
         <v>734</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
@@ -5205,7 +5211,7 @@
         <v>734</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
@@ -5277,13 +5283,13 @@
         <v>654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5307,13 +5313,13 @@
         <v>654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,7 +5340,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5385,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5436,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5481,13 +5487,13 @@
         <v>675</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5496,7 +5502,7 @@
         <v>923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
@@ -5511,13 +5517,13 @@
         <v>1598</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5538,13 @@
         <v>2000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5562,13 +5568,13 @@
         <v>1999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5595,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5640,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5691,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5736,13 +5742,13 @@
         <v>654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5766,13 +5772,13 @@
         <v>654</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,7 +5799,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -5802,7 +5808,7 @@
         <v>1341</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
@@ -5817,13 +5823,13 @@
         <v>1341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5844,13 @@
         <v>667</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5868,13 +5874,13 @@
         <v>667</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6584,7 @@
         <v>580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -6606,7 +6612,7 @@
         <v>580</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
@@ -6823,7 +6829,7 @@
         <v>625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
@@ -6851,7 +6857,7 @@
         <v>625</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
@@ -7168,13 +7174,13 @@
         <v>654</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7189,7 +7195,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -7198,13 +7204,13 @@
         <v>654</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7225,13 @@
         <v>580</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -7240,7 +7246,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -7249,13 +7255,13 @@
         <v>580</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,7 +7282,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7291,7 +7297,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -7306,7 +7312,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -7342,7 +7348,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -7357,7 +7363,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7378,13 @@
         <v>675</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -7387,13 +7393,13 @@
         <v>923</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -7402,13 +7408,13 @@
         <v>1598</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7450,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -7495,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -7531,7 +7537,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -7546,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7561,7 +7567,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7588,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -7597,7 +7603,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -7612,7 +7618,7 @@
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,7 +7633,7 @@
         <v>654</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
@@ -7684,7 +7690,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -7714,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7735,13 @@
         <v>667</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -7744,13 +7750,13 @@
         <v>734</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -7759,13 +7765,13 @@
         <v>1401</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,7 +7827,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7841,7 +7847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449B8290-C326-4903-8C25-11A8A8F241E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012E55C-8B7F-4CA6-BFDA-7AB8BA45E510}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7858,7 +7864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8573,7 +8579,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8588,7 +8594,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8639,7 +8645,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8675,13 @@
         <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8684,13 +8690,13 @@
         <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +8726,13 @@
         <v>604</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8735,13 +8741,13 @@
         <v>604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,7 +8783,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8792,7 +8798,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,7 +8834,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8843,7 +8849,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,7 +8885,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8894,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8930,7 +8936,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8945,7 +8951,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8975,13 +8981,13 @@
         <v>536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8990,13 +8996,13 @@
         <v>536</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9032,7 +9038,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9047,7 +9053,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9077,13 +9083,13 @@
         <v>1381</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -9092,13 +9098,13 @@
         <v>2697</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9134,7 +9140,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9149,7 +9155,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,7 +9259,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9304,7 +9310,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9355,7 +9361,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9406,7 +9412,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,7 +9427,7 @@
         <v>726</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
@@ -9451,13 +9457,13 @@
         <v>727</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9487,7 +9493,7 @@
         <v>792</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
@@ -9502,13 +9508,13 @@
         <v>792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9559,7 +9565,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9610,7 +9616,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9625,7 +9631,7 @@
         <v>670</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
@@ -9655,13 +9661,13 @@
         <v>670</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9697,7 @@
         <v>705</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
@@ -9706,13 +9712,13 @@
         <v>706</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9763,7 +9769,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,7 +9784,7 @@
         <v>790</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
@@ -9808,13 +9814,13 @@
         <v>790</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,7 +10548,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -10557,7 +10563,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10572,13 +10578,13 @@
         <v>891</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -10593,7 +10599,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -10602,13 +10608,13 @@
         <v>891</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10638,13 +10644,13 @@
         <v>759</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -10653,13 +10659,13 @@
         <v>759</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,13 +10695,13 @@
         <v>604</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -10710,7 +10716,7 @@
         <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10725,13 +10731,13 @@
         <v>727</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -10746,7 +10752,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -10755,13 +10761,13 @@
         <v>727</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10791,13 +10797,13 @@
         <v>792</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -10806,13 +10812,13 @@
         <v>792</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10848,7 +10854,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -10863,7 +10869,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10899,7 +10905,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -10914,7 +10920,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10929,13 +10935,13 @@
         <v>670</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -10944,13 +10950,13 @@
         <v>536</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -10959,13 +10965,13 @@
         <v>1206</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10995,13 +11001,13 @@
         <v>705</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -11010,13 +11016,13 @@
         <v>705</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11031,13 +11037,13 @@
         <v>1316</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -11046,13 +11052,13 @@
         <v>1381</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M66" s="7">
         <v>4</v>
@@ -11061,13 +11067,13 @@
         <v>2697</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -11082,13 +11088,13 @@
         <v>790</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -11103,7 +11109,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -11112,13 +11118,13 @@
         <v>790</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -11174,7 +11180,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -11194,7 +11200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A726C2D4-8533-467D-8D41-524666368288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE89116-33BF-40F9-ADE5-A0AD3D70E7DB}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11211,7 +11217,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12310,7 +12316,7 @@
         <v>852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
@@ -12325,7 +12331,7 @@
         <v>852</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
@@ -12408,7 +12414,7 @@
         <v>843</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
@@ -12423,7 +12429,7 @@
         <v>843</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
@@ -12829,7 +12835,7 @@
         <v>604</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
@@ -13084,7 +13090,7 @@
         <v>775</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
@@ -13884,7 +13890,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13935,7 +13941,7 @@
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13986,7 +13992,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14037,7 +14043,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14088,7 +14094,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14118,7 +14124,7 @@
         <v>604</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>10</v>
@@ -14133,13 +14139,13 @@
         <v>605</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14190,7 +14196,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14241,7 +14247,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14256,7 +14262,7 @@
         <v>900</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
@@ -14271,7 +14277,7 @@
         <v>852</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
@@ -14286,13 +14292,13 @@
         <v>1752</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14343,7 +14349,7 @@
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14358,7 +14364,7 @@
         <v>775</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
@@ -14373,7 +14379,7 @@
         <v>843</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
@@ -14388,13 +14394,13 @@
         <v>1618</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14445,7 +14451,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14501,7 +14507,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
